--- a/b0_dec_r.xlsx
+++ b/b0_dec_r.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:A1251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,182 +374,182 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-154</v>
+        <v>-159</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-1064</v>
+        <v>-1066</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-678</v>
+        <v>-679</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-506</v>
+        <v>-507</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-788</v>
+        <v>-785</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-324</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-259</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-583</v>
+        <v>-584</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-157</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-25</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-93</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-198</v>
+        <v>-194</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-628</v>
+        <v>-626</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-301</v>
+        <v>-299</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-418</v>
+        <v>-417</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-262</v>
+        <v>-257</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-171</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-237</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-161</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-257</v>
+        <v>-261</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -559,37 +559,37 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-327</v>
+        <v>-325</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-699</v>
+        <v>-703</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-406</v>
+        <v>-404</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-327</v>
+        <v>-336</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -609,52 +609,52 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-70</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-272</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-944</v>
+        <v>-943</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-290</v>
+        <v>-284</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -664,22 +664,22 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-720</v>
+        <v>-725</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-416</v>
+        <v>-418</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -689,27 +689,27 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-277</v>
+        <v>-278</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
@@ -719,52 +719,52 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-95</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-376</v>
+        <v>-378</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-186</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-15</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-92</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-25</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -779,17 +779,17 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-70</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -799,17 +799,17 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-231</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-185</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-385</v>
+        <v>-381</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -824,92 +824,92 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-275</v>
+        <v>-269</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-44</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>256</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-253</v>
+        <v>-248</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-618</v>
+        <v>-620</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-162</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-281</v>
+        <v>-274</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-377</v>
+        <v>-370</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-468</v>
+        <v>-467</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>-228</v>
+        <v>-222</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-764</v>
+        <v>-761</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -919,27 +919,27 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>-68</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>-35</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-275</v>
+        <v>-272</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -954,47 +954,47 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-145</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-153</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-616</v>
+        <v>-610</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>-627</v>
+        <v>-623</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-373</v>
+        <v>-371</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -1004,57 +1004,57 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-106</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-240</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-790</v>
+        <v>-788</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-588</v>
+        <v>-582</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-308</v>
+        <v>-305</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -1064,17 +1064,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>-63</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>-339</v>
+        <v>-338</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -1084,22 +1084,22 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-66</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -1114,72 +1114,72 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>-465</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>-650</v>
+        <v>-647</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>-63</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>-302</v>
+        <v>-308</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>-501</v>
+        <v>-499</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>-42</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>-167</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>-305</v>
+        <v>-297</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -1189,57 +1189,57 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>-237</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>-366</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>-226</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>-141</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>-107</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
@@ -1249,97 +1249,97 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>-245</v>
+        <v>-242</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>-191</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>-250</v>
+        <v>-254</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>-245</v>
+        <v>-243</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>-788</v>
+        <v>-791</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>-339</v>
+        <v>-335</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>-136</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
@@ -1349,72 +1349,72 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>-257</v>
+        <v>-265</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>-647</v>
+        <v>-642</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>-300</v>
+        <v>-297</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>-142</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>-544</v>
+        <v>-549</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>-240</v>
+        <v>-242</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>-37</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
@@ -1424,72 +1424,72 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>-370</v>
+        <v>-378</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>-402</v>
+        <v>-397</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>-252</v>
+        <v>-251</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>-438</v>
+        <v>-436</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>-261</v>
+        <v>-256</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>-202</v>
+        <v>-199</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>-498</v>
+        <v>-503</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>-45</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -1499,67 +1499,67 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>-366</v>
+        <v>-363</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>-660</v>
+        <v>-656</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>-190</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>-286</v>
+        <v>-290</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>-138</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>-84</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>-14</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>-117</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
@@ -1569,97 +1569,97 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>-530</v>
+        <v>-527</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>-91</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>-361</v>
+        <v>-362</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>-193</v>
+        <v>-187</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>-100</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>-550</v>
+        <v>-551</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>-76</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>-60</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>-234</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>-78</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0</v>
+        <v>219</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>-76</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>-360</v>
+        <v>-352</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -1669,102 +1669,102 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>-138</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>-5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>715</v>
+        <v>727</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>-46</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>-476</v>
+        <v>-472</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>-251</v>
+        <v>-248</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>-766</v>
+        <v>-768</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>-225</v>
+        <v>-221</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>-24</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>-166</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>-91</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>-28</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>-158</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>-524</v>
+        <v>-528</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
@@ -1774,12 +1774,12 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>-171</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -1789,42 +1789,42 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>-611</v>
+        <v>-604</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>-270</v>
+        <v>-272</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>-91</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>-61</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>-354</v>
+        <v>-359</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>-25</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
@@ -1844,37 +1844,37 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>-666</v>
+        <v>-661</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>-229</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>-281</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
@@ -1889,147 +1889,147 @@
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>-128</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>-84</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>-633</v>
+        <v>-631</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>-675</v>
+        <v>-674</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>-449</v>
+        <v>-447</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>-85</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>-388</v>
+        <v>-384</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>-358</v>
+        <v>-359</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>-466</v>
+        <v>-463</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>-376</v>
+        <v>-377</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>-200</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>-170</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>-383</v>
+        <v>-377</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>-469</v>
+        <v>-472</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
@@ -2039,12 +2039,12 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>-131</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
@@ -2054,177 +2054,177 @@
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>-646</v>
+        <v>-636</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>-94</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>-242</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>-162</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>-318</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>-45</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>-104</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>-632</v>
+        <v>-630</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>-149</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>-43</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>-221</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>-265</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>-409</v>
+        <v>-411</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>-28</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>-82</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>-416</v>
+        <v>-421</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>-38</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>-155</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>-99</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>-23</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>-392</v>
+        <v>-393</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>-96</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>-222</v>
+        <v>-216</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>-76</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>-213</v>
+        <v>-222</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
@@ -2239,77 +2239,77 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>-689</v>
+        <v>-693</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>-263</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>-235</v>
+        <v>-229</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>-400</v>
+        <v>-408</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>-36</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
@@ -2319,37 +2319,37 @@
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>-236</v>
+        <v>-231</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>-615</v>
+        <v>-617</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -2359,167 +2359,167 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>-11</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>-20</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>-437</v>
+        <v>-434</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>-245</v>
+        <v>-242</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>-205</v>
+        <v>-199</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>-276</v>
+        <v>-272</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>-340</v>
+        <v>-343</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>-28</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>-15</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>-105</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>-766</v>
+        <v>-767</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>-396</v>
+        <v>-397</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>-251</v>
+        <v>-248</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>-323</v>
+        <v>-324</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>-430</v>
+        <v>-433</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>-144</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>-21</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>-138</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
@@ -2529,42 +2529,42 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>-878</v>
+        <v>-882</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>-490</v>
+        <v>-491</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>-49</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
@@ -2584,122 +2584,122 @@
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>-328</v>
+        <v>-326</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>-69</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>-118</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>-540</v>
+        <v>-541</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>-92</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>-418</v>
+        <v>-417</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>-330</v>
+        <v>-331</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>-41</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>-248</v>
+        <v>-242</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>-221</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>-425</v>
+        <v>-423</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
@@ -2709,47 +2709,47 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>-89</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>-170</v>
+        <v>-178</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>-311</v>
+        <v>-306</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>-360</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>-278</v>
+        <v>-271</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
@@ -2759,27 +2759,27 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>-173</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>-304</v>
+        <v>-302</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
@@ -2789,52 +2789,52 @@
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>-92</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>-72</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>-283</v>
+        <v>-278</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>-664</v>
+        <v>-667</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>-230</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
@@ -2844,47 +2844,47 @@
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>-50</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>-46</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>-253</v>
+        <v>-247</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>-535</v>
+        <v>-531</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>-317</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
@@ -2894,27 +2894,27 @@
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>-96</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>-32</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
@@ -2924,32 +2924,32 @@
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>-86</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>-605</v>
+        <v>-601</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>-400</v>
+        <v>-396</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -2959,12 +2959,12 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>-350</v>
+        <v>-351</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
@@ -2974,72 +2974,72 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>-28</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>-416</v>
+        <v>-413</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>-193</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>-479</v>
+        <v>-475</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>-53</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>-210</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>-160</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>-19</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>-279</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>-192</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
@@ -3054,47 +3054,47 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>-541</v>
+        <v>-537</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>-59</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
@@ -3104,77 +3104,77 @@
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>-54</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>-2</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>-166</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>-414</v>
+        <v>-419</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>-57</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>-161</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>-194</v>
+        <v>-198</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>-273</v>
+        <v>-277</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
@@ -3184,52 +3184,52 @@
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>-230</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>-157</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>-364</v>
+        <v>-365</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>-592</v>
+        <v>-588</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>-212</v>
+        <v>-207</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
@@ -3239,87 +3239,87 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>-252</v>
+        <v>-251</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>-412</v>
+        <v>-420</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>-245</v>
+        <v>-247</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>-675</v>
+        <v>-674</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>-283</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>-78</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>-177</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>-337</v>
+        <v>-338</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>-376</v>
+        <v>-369</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>-183</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
@@ -3329,32 +3329,32 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>-303</v>
+        <v>-302</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>-503</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>-423</v>
+        <v>-422</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
@@ -3364,27 +3364,27 @@
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>-73</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>-215</v>
+        <v>-209</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
@@ -3394,232 +3394,232 @@
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>-396</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>-65</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>-266</v>
+        <v>-263</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>-235</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>-592</v>
+        <v>-595</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>-432</v>
+        <v>-435</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>-29</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>-10</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>-734</v>
+        <v>-728</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>-615</v>
+        <v>-619</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>-172</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>-101</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>-217</v>
+        <v>-216</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>-371</v>
+        <v>-377</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>-366</v>
+        <v>-368</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>-230</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>-435</v>
+        <v>-429</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>-547</v>
+        <v>-546</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>-407</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>-125</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>-936</v>
+        <v>-929</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
@@ -3629,57 +3629,57 @@
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>-50</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>-30</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>-145</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>-134</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>-473</v>
+        <v>-462</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>-34</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
@@ -3689,22 +3689,22 @@
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>-258</v>
+        <v>-256</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
@@ -3719,42 +3719,42 @@
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>-40</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>-354</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>-461</v>
+        <v>-463</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
@@ -3764,27 +3764,27 @@
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>-315</v>
+        <v>-310</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
@@ -3799,37 +3799,37 @@
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>-270</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>-451</v>
+        <v>-446</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>-315</v>
+        <v>-314</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
@@ -3839,37 +3839,37 @@
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>-242</v>
+        <v>-239</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>-221</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
@@ -3879,27 +3879,27 @@
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>-750</v>
+        <v>-748</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>-471</v>
+        <v>-468</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>-365</v>
+        <v>-362</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
@@ -3909,27 +3909,27 @@
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>-329</v>
+        <v>-325</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>-459</v>
+        <v>-457</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>-308</v>
+        <v>-309</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
@@ -3939,142 +3939,142 @@
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>-101</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>-59</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>-591</v>
+        <v>-589</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>-116</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>-194</v>
+        <v>-193</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>-346</v>
+        <v>-345</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>0</v>
+        <v>235</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>-70</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>-90</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>-246</v>
+        <v>-241</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>-53</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>-70</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>-184</v>
+        <v>-187</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
@@ -4084,52 +4084,52 @@
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>-70</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>-486</v>
+        <v>-489</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>-719</v>
+        <v>-714</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>-99</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
@@ -4139,57 +4139,57 @@
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>-183</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>-416</v>
+        <v>-413</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>-532</v>
+        <v>-523</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>-481</v>
+        <v>-480</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>-103</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
@@ -4199,62 +4199,62 @@
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>-517</v>
+        <v>-528</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>-526</v>
+        <v>-525</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>-291</v>
+        <v>-295</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>-306</v>
+        <v>-301</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>-430</v>
+        <v>-428</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>-572</v>
+        <v>-573</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>-259</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
@@ -4264,32 +4264,32 @@
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>-55</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>-326</v>
+        <v>-323</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>-432</v>
+        <v>-430</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
@@ -4299,87 +4299,87 @@
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>-294</v>
+        <v>-292</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>-401</v>
+        <v>-399</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>-41</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>-208</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>-56</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>-322</v>
+        <v>-316</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>-496</v>
+        <v>-491</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>-436</v>
+        <v>-431</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
@@ -4389,57 +4389,57 @@
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>-262</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>-371</v>
+        <v>-362</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>-416</v>
+        <v>-415</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>-295</v>
+        <v>-299</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>-83</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
@@ -4449,42 +4449,42 @@
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>-312</v>
+        <v>-307</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>-674</v>
+        <v>-676</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>-130</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
@@ -4494,107 +4494,107 @@
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>-406</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>-20</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>-301</v>
+        <v>-299</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>-345</v>
+        <v>-338</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>-151</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>-129</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>-143</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>-479</v>
+        <v>-475</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>-563</v>
+        <v>-560</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>-97</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>-261</v>
+        <v>-259</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>-324</v>
+        <v>-322</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>-68</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
@@ -4604,22 +4604,22 @@
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>-371</v>
+        <v>-365</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
@@ -4629,7 +4629,7 @@
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
@@ -4639,47 +4639,47 @@
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>-520</v>
+        <v>-518</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>-67</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>-284</v>
+        <v>-283</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>-292</v>
+        <v>-291</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
@@ -4689,17 +4689,17 @@
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>-471</v>
+        <v>-467</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>-414</v>
+        <v>-411</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>-221</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
@@ -4719,17 +4719,17 @@
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>-47</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>-343</v>
+        <v>-340</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
@@ -4744,12 +4744,12 @@
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>-92</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
@@ -4759,42 +4759,42 @@
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>-476</v>
+        <v>-472</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>-646</v>
+        <v>-642</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>-411</v>
+        <v>-410</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>-281</v>
+        <v>-276</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
@@ -4809,47 +4809,47 @@
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>-462</v>
+        <v>-463</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>-447</v>
+        <v>-442</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>-391</v>
+        <v>-385</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>-374</v>
+        <v>-370</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
@@ -4859,102 +4859,102 @@
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>-293</v>
+        <v>-292</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>-122</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>-282</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>-59</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>-134</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>-688</v>
+        <v>-686</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>-264</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>-345</v>
+        <v>-341</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>-51</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>-295</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>-244</v>
+        <v>-241</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>-51</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>-197</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
@@ -4969,27 +4969,27 @@
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>-52</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>-493</v>
+        <v>-501</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
@@ -4999,72 +4999,72 @@
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>-581</v>
+        <v>-580</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>-331</v>
+        <v>-343</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>-163</v>
+        <v>-161</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>-91</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>-96</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>-76</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>-579</v>
+        <v>-578</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>-190</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
@@ -5074,12 +5074,12 @@
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>-57</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
@@ -5094,22 +5094,22 @@
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>-539</v>
+        <v>-543</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>-109</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
@@ -5119,27 +5119,27 @@
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>-135</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>-350</v>
+        <v>-348</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>-207</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>-301</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
@@ -5149,62 +5149,62 @@
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>-165</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>-422</v>
+        <v>-420</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>-604</v>
+        <v>-602</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>-128</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
@@ -5224,32 +5224,32 @@
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>-374</v>
+        <v>-372</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>-465</v>
+        <v>-463</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>-337</v>
+        <v>-331</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
@@ -5259,32 +5259,32 @@
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>-313</v>
+        <v>-316</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>-210</v>
+        <v>-209</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>-283</v>
+        <v>-287</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
@@ -5294,57 +5294,57 @@
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>-11</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>-691</v>
+        <v>-688</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>-381</v>
+        <v>-382</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>-143</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>-507</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>-191</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
@@ -5364,97 +5364,97 @@
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002">
-        <v>-257</v>
+        <v>-254</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004">
-        <v>-216</v>
+        <v>-213</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006">
-        <v>-70</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008">
-        <v>-464</v>
+        <v>-461</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010">
-        <v>-388</v>
+        <v>-391</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012">
-        <v>-63</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015">
-        <v>-564</v>
+        <v>-561</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017">
-        <v>-742</v>
+        <v>-741</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019">
-        <v>-305</v>
+        <v>-304</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
@@ -5464,17 +5464,17 @@
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021">
-        <v>-214</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
@@ -5484,87 +5484,87 @@
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026">
-        <v>-489</v>
+        <v>-491</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027">
-        <v>-62</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028">
-        <v>-843</v>
+        <v>-849</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036">
-        <v>-308</v>
+        <v>-305</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041">
-        <v>-53</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
@@ -5574,82 +5574,82 @@
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043">
-        <v>-252</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044">
-        <v>-126</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045">
-        <v>-664</v>
+        <v>-653</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047">
-        <v>-153</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052">
-        <v>-252</v>
+        <v>-256</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054">
-        <v>-131</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058">
-        <v>-83</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
@@ -5659,47 +5659,47 @@
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060">
-        <v>-113</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062">
-        <v>-294</v>
+        <v>-289</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064">
-        <v>-258</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
@@ -5709,7 +5709,7 @@
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
@@ -5719,27 +5719,27 @@
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073">
-        <v>-658</v>
+        <v>-654</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075">
-        <v>-218</v>
+        <v>-213</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
@@ -5749,67 +5749,67 @@
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079">
-        <v>-445</v>
+        <v>-446</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080">
-        <v>-328</v>
+        <v>-325</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081">
-        <v>-129</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084">
-        <v>-156</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086">
-        <v>-588</v>
+        <v>-582</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088">
-        <v>-163</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090">
-        <v>-286</v>
+        <v>-283</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
@@ -5819,52 +5819,52 @@
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095">
-        <v>-485</v>
+        <v>-480</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097">
-        <v>-867</v>
+        <v>-865</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099">
-        <v>-117</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101">
-        <v>-104</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
@@ -5874,52 +5874,52 @@
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103">
-        <v>-268</v>
+        <v>-265</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105">
-        <v>-73</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107">
-        <v>-86</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108">
-        <v>-44</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112">
-        <v>-338</v>
+        <v>-334</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
@@ -5929,62 +5929,62 @@
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114">
-        <v>-388</v>
+        <v>-385</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116">
-        <v>-213</v>
+        <v>-211</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118">
-        <v>-222</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121">
-        <v>-54</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1122">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123">
-        <v>-247</v>
+        <v>-246</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124">
-        <v>-15</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1125">
-        <v>-131</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
@@ -5999,42 +5999,42 @@
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132">
-        <v>-232</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133">
-        <v>-386</v>
+        <v>-384</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134">
-        <v>-224</v>
+        <v>-218</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135">
-        <v>-71</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
@@ -6044,17 +6044,17 @@
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137">
-        <v>491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138">
-        <v>-126</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
@@ -6074,27 +6074,27 @@
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143">
-        <v>-270</v>
+        <v>-273</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144">
-        <v>-495</v>
+        <v>-492</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147">
-        <v>-147</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
@@ -6104,12 +6104,12 @@
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149">
-        <v>-72</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
@@ -6119,42 +6119,42 @@
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153">
-        <v>-627</v>
+        <v>-621</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154">
-        <v>-56</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157">
-        <v>-198</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159">
-        <v>-248</v>
+        <v>-247</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161">
-        <v>-293</v>
+        <v>-295</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
@@ -6174,52 +6174,52 @@
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164">
-        <v>-108</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166">
-        <v>-335</v>
+        <v>-334</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1168">
-        <v>-434</v>
+        <v>-432</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170">
-        <v>-441</v>
+        <v>-434</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172">
-        <v>-36</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
@@ -6229,107 +6229,107 @@
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1175">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176">
-        <v>-54</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177">
-        <v>-397</v>
+        <v>-395</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179">
-        <v>-619</v>
+        <v>-622</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1181">
-        <v>-126</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1182">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1183">
-        <v>-369</v>
+        <v>-363</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1184">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1185">
-        <v>-326</v>
+        <v>-323</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186">
-        <v>-292</v>
+        <v>-298</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1187">
-        <v>-371</v>
+        <v>-370</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1188">
-        <v>-328</v>
+        <v>-329</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1189">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190">
-        <v>-143</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1191">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1192">
-        <v>-282</v>
+        <v>-277</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1193">
-        <v>-83</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194">
-        <v>-758</v>
+        <v>-759</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
@@ -6339,7 +6339,7 @@
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1196">
-        <v>-465</v>
+        <v>-464</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
@@ -6349,32 +6349,32 @@
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198">
-        <v>-281</v>
+        <v>-278</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200">
-        <v>-116</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203">
-        <v>-367</v>
+        <v>-363</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
@@ -6384,47 +6384,47 @@
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205">
-        <v>-323</v>
+        <v>-328</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207">
-        <v>-151</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209">
-        <v>-91</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211">
-        <v>-188</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1213">
-        <v>-335</v>
+        <v>-336</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
@@ -6434,22 +6434,22 @@
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215">
-        <v>-187</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
@@ -6459,27 +6459,27 @@
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220">
-        <v>-81</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221">
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222">
-        <v>-348</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1223">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224">
-        <v>-396</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
@@ -6489,27 +6489,27 @@
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226">
-        <v>-59</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1228">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229">
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1230">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
@@ -6519,22 +6519,22 @@
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232">
-        <v>-70</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233">
-        <v>-651</v>
+        <v>-645</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1234">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1235">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
@@ -6544,7 +6544,7 @@
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
@@ -6554,67 +6554,67 @@
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239">
-        <v>-354</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240">
-        <v>-53</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241">
-        <v>-50</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242">
-        <v>-264</v>
+        <v>-263</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244">
-        <v>-529</v>
+        <v>-531</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246">
-        <v>-160</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248">
-        <v>-239</v>
+        <v>-241</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1249">
-        <v>-141</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250">
-        <v>-733</v>
+        <v>-727</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251">
-        <v>-82</v>
+        <v>-83</v>
       </c>
     </row>
   </sheetData>
